--- a/Docs/미슐랭 가이드 서울 레스토랑 목록.xlsx
+++ b/Docs/미슐랭 가이드 서울 레스토랑 목록.xlsx
@@ -2613,10 +2613,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.86"/>
+    <col customWidth="1" min="1" max="1" width="19.43"/>
+    <col customWidth="1" min="2" max="2" width="17.29"/>
     <col customWidth="1" min="3" max="3" width="7.43"/>
     <col customWidth="1" min="4" max="4" width="8.14"/>
-    <col customWidth="1" min="6" max="7" width="18.86"/>
+    <col customWidth="1" min="6" max="6" width="5.71"/>
+    <col customWidth="1" min="7" max="7" width="18.86"/>
     <col customWidth="1" min="9" max="9" width="7.71"/>
     <col customWidth="1" min="10" max="10" width="7.43"/>
     <col customWidth="1" min="11" max="11" width="6.57"/>
